--- a/urbs_intertemporal_2050/2025.xlsx
+++ b/urbs_intertemporal_2050/2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E3A689-0A25-4F3D-91BC-C906B85F1868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53998D96-9887-421B-9F18-07D93F5981A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>EU27.Gas plant</t>
+  </si>
+  <si>
+    <t>Coal CCUS</t>
+  </si>
+  <si>
+    <t>Coal Lignite CCUS</t>
+  </si>
+  <si>
+    <t>Gas Plant (CCGT) CCUS</t>
   </si>
 </sst>
 </file>
@@ -557,7 +566,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,6 +817,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,7 +1360,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1492,6 +1507,10 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="397">
@@ -1893,7 +1912,106 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="24">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -2378,8 +2496,8 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2804,7 +2922,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2823,10 +2941,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3063,8 +3181,8 @@
       <c r="C6" s="20">
         <v>0</v>
       </c>
-      <c r="D6" s="54">
-        <v>53560</v>
+      <c r="D6" s="62">
+        <v>999999</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>24</v>
@@ -3104,8 +3222,8 @@
       <c r="C7" s="20">
         <v>0</v>
       </c>
-      <c r="D7" s="54">
-        <v>43590</v>
+      <c r="D7" s="62">
+        <v>999999</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>24</v>
@@ -3145,8 +3263,8 @@
       <c r="C8" s="20">
         <v>0</v>
       </c>
-      <c r="D8" s="54">
-        <v>188900</v>
+      <c r="D8" s="62">
+        <v>999999</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>24</v>
@@ -3258,45 +3376,183 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="53">
+        <v>3791028.3572399998</v>
+      </c>
+      <c r="H11" s="53">
+        <v>84183.129702000006</v>
+      </c>
+      <c r="I11" s="53">
+        <v>6.75</v>
+      </c>
+      <c r="J11" s="56">
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L11" s="53">
+        <v>40</v>
+      </c>
+      <c r="M11" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0.65</v>
+      </c>
+      <c r="G12" s="53">
+        <v>4014030.0248799999</v>
+      </c>
+      <c r="H12" s="53">
+        <v>76489.572146799997</v>
+      </c>
+      <c r="I12" s="53">
+        <v>6.96</v>
+      </c>
+      <c r="J12" s="56">
+        <v>0</v>
+      </c>
+      <c r="K12" s="42">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L12" s="53">
+        <v>40</v>
+      </c>
+      <c r="M12" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="53">
+        <v>1951271.6999999997</v>
+      </c>
+      <c r="H13" s="53">
+        <v>45715.5</v>
+      </c>
+      <c r="I13" s="53">
+        <v>3.46</v>
+      </c>
+      <c r="J13" s="56">
+        <v>0</v>
+      </c>
+      <c r="K13" s="42">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L13" s="53">
+        <v>25</v>
+      </c>
+      <c r="M13" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <conditionalFormatting sqref="A2:A10">
-    <cfRule type="expression" dxfId="11" priority="4">
+  <conditionalFormatting sqref="A2:A13">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C3 E2:M3 A4:M6">
-    <cfRule type="expression" dxfId="10" priority="6">
+  <conditionalFormatting sqref="A2:B6">
+    <cfRule type="expression" dxfId="21" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 A14:XFD1048576">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5 B7:B10">
-    <cfRule type="expression" dxfId="8" priority="5">
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C10">
-    <cfRule type="expression" dxfId="7" priority="2">
+  <conditionalFormatting sqref="B7:B10 B12:B13">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D13">
+    <cfRule type="expression" dxfId="16" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:M3 C4:M5 E6:M6">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:I4">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:XFD6">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3323,10 +3579,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3749,19 +4005,195 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="63">
+        <v>0.36</v>
+      </c>
+      <c r="E25" s="24" t="e">
+        <f>D25*E23</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="64">
+        <v>3.4180000000000002E-2</v>
+      </c>
+      <c r="E26" s="24" t="e">
+        <f>D26*E24</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="63">
+        <v>0.32</v>
+      </c>
+      <c r="E28" s="24" t="e">
+        <f>D28*E25</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="64">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="E29" s="24" t="e">
+        <f>D29*E27</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="E31" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="64">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="E32" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="A1:XFD23 F24:XFD32 A33:XFD1048576">
+    <cfRule type="expression" dxfId="12" priority="23">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="11" priority="42">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C31">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:D32">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:E24 A24:A32 D27:E27 D30:E30">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D6 D9 D12:D14">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -3770,7 +4202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D23">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -3779,7 +4211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -3788,7 +4220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -3797,7 +4229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 D17">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -3806,7 +4238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -3815,7 +4247,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -3824,7 +4256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D23">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -3832,7 +4264,196 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FE60BBE6-13B4-4FBC-85D1-9C9C42983FFA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC555EA0-E0A3-4937-8DAA-09AB73E812C1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C373837E-C69E-4E58-B11F-98F40706E997}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17A80BF5-4F14-49E0-A552-F5EF53DAAFE1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AD5BF277-31E2-42C0-A967-E768405FD40A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A377CCC3-5A9C-46C9-8803-5FD6731C3849}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D3D934C3-A578-4A49-B389-22CB0C475535}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{52C1D05A-E946-4407-8E8D-7704136AF907}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
+    <cfRule type="dataBar" priority="57">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:E30 E31">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BA489CCE-F559-44AD-8A75-1E9B55195C33}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:E1048576">
+    <cfRule type="dataBar" priority="64">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E14">
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E16">
+    <cfRule type="dataBar" priority="43">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E19">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E23">
     <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3841,67 +4462,75 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E1048576">
-    <cfRule type="dataBar" priority="43">
+  <conditionalFormatting sqref="E24:E26">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C9791CD-D2D9-4A28-8FD9-974C227D0DAE}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
+  <conditionalFormatting sqref="E25:E26">
+    <cfRule type="expression" dxfId="5" priority="14">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7A12A122-A5C3-4A6B-A77D-1A7781DED8CD}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E14">
-    <cfRule type="dataBar" priority="19">
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DDB2FA35-E285-4768-93C8-24BA0BFCF641}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E16">
-    <cfRule type="dataBar" priority="22">
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E19">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FECCE25E-B3E1-4BCE-AC3B-BB042E005AA0}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3910,6 +4539,198 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FE60BBE6-13B4-4FBC-85D1-9C9C42983FFA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC555EA0-E0A3-4937-8DAA-09AB73E812C1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{C373837E-C69E-4E58-B11F-98F40706E997}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{17A80BF5-4F14-49E0-A552-F5EF53DAAFE1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AD5BF277-31E2-42C0-A967-E768405FD40A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{A377CCC3-5A9C-46C9-8803-5FD6731C3849}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D3D934C3-A578-4A49-B389-22CB0C475535}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{52C1D05A-E946-4407-8E8D-7704136AF907}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BA489CCE-F559-44AD-8A75-1E9B55195C33}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D30:E30 E31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C9791CD-D2D9-4A28-8FD9-974C227D0DAE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E24:E26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7A12A122-A5C3-4A6B-A77D-1A7781DED8CD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E27:E28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DDB2FA35-E285-4768-93C8-24BA0BFCF641}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FECCE25E-B3E1-4BCE-AC3B-BB042E005AA0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3990,7 +4811,7 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4295,7 +5116,7 @@
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
